--- a/src/main/resources/templates/excel/plantilla.xlsx
+++ b/src/main/resources/templates/excel/plantilla.xlsx
@@ -51,7 +51,7 @@
     <t>&lt;bbva:money amount="${deliveryman.salary.amount}" currency="${deliveryman.salary.currency}"/&gt;&lt;/jt:forEach&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ${deliveryman.time}</t>
+    <t xml:space="preserve"> &lt;bbva:localTime value="${deliveryman.time}"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/excel/plantilla.xlsx
+++ b/src/main/resources/templates/excel/plantilla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>&lt;jt:style class="title"&gt;${subject}&lt;/jt:style&gt;</t>
   </si>
   <si>
-    <t>&lt;bbva:money amount="${deliveryman.salary.amount}" currency="${deliveryman.salary.currency}"/&gt;&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ${deliveryman.time}</t>
+  </si>
+  <si>
+    <t>&lt;futurama:money amount="${deliveryman.salary.amount}" currency="${deliveryman.salary.currency}"/&gt;&lt;/jt:forEach&gt;</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
